--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0267 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0267 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B518BCCA-D67B-4266-9409-98B0BA7D9AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA76A6-F77B-4091-82E3-54F55B2043B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0267 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0267 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA76A6-F77B-4091-82E3-54F55B2043B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BB4982-41BB-41CA-98A8-8A3E975D4F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +183,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -232,7 +225,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -544,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +649,7 @@
       <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>9669179367</v>
       </c>
       <c r="P2" s="8"/>
@@ -681,8 +673,8 @@
       <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="10">
-        <v>35795</v>
+      <c r="F3" s="9">
+        <v>32362</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
@@ -714,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="9">
-        <v>19256</v>
+        <v>19331</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -770,7 +762,7 @@
       <c r="N5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>9669179367</v>
       </c>
       <c r="P5" s="8"/>
@@ -845,7 +837,7 @@
       <c r="N7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>9669179367</v>
       </c>
       <c r="P7" s="8"/>
